--- a/Casos de prueba.xlsx
+++ b/Casos de prueba.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\PUCP\CICLO I\Lenguaje de programación\Trabajo Sistema Experto\Sistema-Experto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE5DA3-8086-44C9-B3EB-CCABD5C8DF45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D1FB82-13E1-4BDC-B6B7-B9AEA8783E10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{855A3347-B085-42EB-99A8-4466592A0536}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos prueba" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,107 +48,129 @@
     <t>Indentificar Guepardo</t>
   </si>
   <si>
-    <t>Guepardo</t>
-  </si>
-  <si>
     <t>Indentificar tigre</t>
+  </si>
+  <si>
+    <t>Indentificar pingüino</t>
+  </si>
+  <si>
+    <t>Indentificar albatro</t>
+  </si>
+  <si>
+    <t>Indentificar oso panda</t>
+  </si>
+  <si>
+    <t>No encontrado</t>
+  </si>
+  <si>
+    <t>pingüino con riesgo bajo</t>
+  </si>
+  <si>
+    <t>Guepardo está amenzado</t>
+  </si>
+  <si>
+    <t>Tigre está en peligro de extinción</t>
+  </si>
+  <si>
+    <t>albatro con riesgo bajo</t>
+  </si>
+  <si>
+    <t>Oso panda en peligro de extinción</t>
   </si>
   <si>
     <t>1. Clic limpiar
 2. Clic comenzar
 3. Responder :
-	¿Vive en África? = no
-	¿Tiene rayas negras en la piel? = si
-	¿Vive en Asia? = si
-	¿Es un animal solitario? = si
-	¿Es el felino más grande del mundo? = si</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Cargar archivo SistemaExperto_a20193969.pl
+     ¿Vive en África? = no
+     ¿Tiene rayas negras en la piel? = si
+     ¿Vive en Asia? = si
+     ¿Es un animal solitario? = si
+     ¿Es el felino más grande del mundo? = si
+4. Clic en botón "¿En extinción?"
+     ¿Crecimiento constante de su población? = no
+     ¿La actividad humana merma su población? = no
+     ¿Muy complicado encontra especies salvajes? = si
+     ¿Población menor a 400 individuos? = si
+     ¿Hábitat destruido? = si</t>
+  </si>
+  <si>
+    <t>1. Cargar archivo SistemaExperto_a20193969.pl
 2. Clic comenzar
 3. Responder :
-	¿Vive en África? = si
-	¿Es carnívoro?	= si
-	¿Tiene manchas negras en la piel? = si
-	¿Es polígamo? = si </t>
+     ¿Vive en África? = si
+     ¿Es carnívoro?     = si
+     ¿Tiene manchas negras en la piel? = si
+     ¿Es polígamo? = si 
+4. Clic en botón "¿En extinción?"
+     ¿Crecimiento constante de su población? = no
+     ¿La actividad humana merma su población? = si
+     ¿Población menor a 5000 individuos? = si
+     ¿Pocos en estado salvaje? = si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clic limpiar
+2. Clic comenzar
+3. Responder :
+     ¿Vive en África? = no
+     ¿Tiene rayas negras en la piel? = no
+     ¿Vive en clima frío? = si
+     ¿Vive en todos los continentes? = si
+     ¿Es carnívoro? = si
+     ¿Suele permanecer en grupos? = si
+     ¿Mide 1,20 centímetros de alto? = si
+     ¿Pesa unos 40 kg? = si
+4. Clic en botón "¿En extinción?"
+     ¿Crecimiento constante de su población? = si
+     ¿En común encontralo en estado salvaje?  = si   
+     ¿Crecimiento de la población sin la ayuda del hombre? = si   </t>
   </si>
   <si>
     <t>1. Clic limpiar
 2. Clic comenzar
 3. Responder :
-	¿Vive en África? = no
-	¿Tiene rayas negras en la piel? = no
-	¿Vive en clima frío? = si
-	¿Vive en todos los continentes? = si
-	¿Es carnívoro? = si
-	¿Suele permanecer en grupos? = si
-	¿Mide 1,20 centímetros de alto? = si
-	¿Pesa unos 40 kg? = si</t>
-  </si>
-  <si>
-    <t>Indentificar pingüino</t>
-  </si>
-  <si>
-    <t>pingüino</t>
+     ¿Vive en África? = no
+     ¿Tiene rayas negras en la piel? = no
+     ¿Vive en clima frío? = no
+     ¿Es un buen volador? = no
+     ¿Viven en el hemisferio Sur? = si
+     ¿Es un ave acuática? = si
+     ¿Tiene plumaje blanco? = si
+     ¿Las alas presentan una gran cantidad de plumas negras? = si
+4. Clic en botón "¿En extinción?"
+     ¿Crecimiento constante de su población? = si
+     ¿En común encontralo en estado salvaje?  = si   
+     ¿Crecimiento de la población sin la ayuda del hombre? = si</t>
   </si>
   <si>
     <t>1. Clic limpiar
 2. Clic comenzar
 3. Responder :
-	¿Vive en África? = no
-	¿Tiene rayas negras en la piel? = no
-	¿Vive en clima frío? = no
-	¿Es un buen volador? = si
-	¿Viven en el hemisferio Sur? = si
-	¿Es un ave acuática? = si
-	¿Tiene plumaje blanco? = si
-	¿Las alas presentan una gran cantidad de plumas negras? = si</t>
-  </si>
-  <si>
-    <t>Indentificar albatro</t>
-  </si>
-  <si>
-    <t>albatro</t>
+     ¿Vive en África? = no
+     ¿Tiene rayas negras en la piel? = no
+     ¿Vive en clima frío? = no
+     ¿Es un buen volador? = no
+     ¿Viven en el hemisferio Sur? = no
+     ¿Su comida favorita es el bambú? = si
+     ¿Es nativo de China? = si
+     ¿Tiene pelaje negro y blanco? = si
+     ¿Es un buen trepador? = si
+4. Clic en botón "¿En extinción?"
+     ¿Crecimiento constante de su población? = no
+     ¿La actividad humana merma su población? = no
+     ¿Muy complicado encontra especies salvajes? = si
+     ¿Población menor a 400 individuos? = si
+     ¿Hábitat destruido? = si</t>
   </si>
   <si>
     <t>1. Clic limpiar
 2. Clic comenzar
 3. Responder :
-	¿Vive en África? = no
-	¿Tiene rayas negras en la piel? = no
-	¿Vive en clima frío? = no
-	¿Es un buen volador? = no
-	¿Viven en el hemisferio Sur? = no
-	¿Su comida favorita es el bambú? = si
-	¿Es nativo de China? = si
-	¿Tiene pelaje negro y blanco? = si
-	¿Es un buen trepador? = si</t>
-  </si>
-  <si>
-    <t>Indentificar oso panda</t>
-  </si>
-  <si>
-    <t>Oso panda</t>
-  </si>
-  <si>
-    <t>No encontrado</t>
-  </si>
-  <si>
-    <t>1. Clic limpiar
-2. Clic comenzar
-3. Responder :
-	¿Vive en África? = no
-	¿Tiene rayas negras en la piel? = no
-	¿Vive en clima frío? = no
-	¿Es un buen volador? = no
-	¿Viven en el hemisferio Sur? = no
-	¿Su comida favorita es el bambú? = no
-	¿Es nativo de China? = no
-	¿Tiene pelaje negro y blanco? = no
-	¿Es un buen trepador? = no</t>
+     ¿Vive en África? = no
+     ¿Tiene rayas negras en la piel? = no
+     ¿Vive en clima frío? = no
+     ¿Es un buen volador? = no
+     ¿Viven en el hemisferio Sur? = no
+     ¿Su comida favorita es el bambú? = no</t>
   </si>
 </sst>
 </file>
@@ -184,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -204,16 +226,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -235,10 +260,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F822721A-DE5A-4A7D-9B17-8B62EED6C2B9}" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{D7994670-77CF-4486-9431-9892DBB69441}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DEE195EE-E2A8-4817-9406-8B954CA5DC23}" name="Numero" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{2EA7E300-222A-487F-AB4A-14C1786B4F0E}" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DEE195EE-E2A8-4817-9406-8B954CA5DC23}" name="Numero" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2EA7E300-222A-487F-AB4A-14C1786B4F0E}" name="Descripción" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{66399F5A-C451-410A-9392-29777625BD94}" name="Pasos"/>
-    <tableColumn id="4" xr3:uid="{26A289B3-421B-4137-9972-D1BC4AA3445E}" name="Resultado esperado" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{26A289B3-421B-4137-9972-D1BC4AA3445E}" name="Resultado esperado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,7 +569,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -577,80 +602,80 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
